--- a/build/classes/seoul_district_small.xlsx
+++ b/build/classes/seoul_district_small.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Edu\webProgramming\webWork\honzaopseoye\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FDDA95-96FF-4D5E-A748-99550311BBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F926D4-DA48-497E-9C6A-3A0FABB76050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1545" windowWidth="20505" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="510" windowWidth="20505" windowHeight="15015" xr2:uid="{18239495-7A0D-490B-B506-EA389AAA51B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>송파구</t>
   </si>
@@ -37,38 +46,27 @@
   </si>
   <si>
     <t>잠실동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>문정동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>장지동</t>
+  </si>
+  <si>
+    <t>오금동</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="바탕체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -94,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -102,49 +100,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -158,7 +131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -174,7 +147,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -186,7 +159,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -203,7 +176,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -233,12 +206,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -268,6 +258,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,41 +426,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9AD98F-1235-411E-BAD4-432739DF9F5F}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>